--- a/Code/Plotting in R/Data/Adaptation_R_Import.xlsx
+++ b/Code/Plotting in R/Data/Adaptation_R_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Box Sync/Lab_Hallem/Astra/Writing/Bryant et al 20xx/Data/Calcium Imaging/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Documents/RStudio/Bryant_et_al_2021/Code/Plotting in R/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C7044E-3664-A94A-B710-2D078DCB5948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A6391-9CB2-4645-BE26-7EF0F75CE352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="3220" windowWidth="32740" windowHeight="16440" xr2:uid="{3004599B-148A-194A-83D2-70A6D74987AA}"/>
+    <workbookView xWindow="16000" yWindow="2040" windowWidth="32740" windowHeight="16440" xr2:uid="{3004599B-148A-194A-83D2-70A6D74987AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="126">
   <si>
     <t>Ss</t>
   </si>
@@ -352,13 +352,64 @@
   </si>
   <si>
     <t>210416_006</t>
+  </si>
+  <si>
+    <t>FlincG3</t>
+  </si>
+  <si>
+    <t>211014_004</t>
+  </si>
+  <si>
+    <t>211014_005</t>
+  </si>
+  <si>
+    <t>211014_006</t>
+  </si>
+  <si>
+    <t>211014_007</t>
+  </si>
+  <si>
+    <t>211014_008</t>
+  </si>
+  <si>
+    <t>211014_009</t>
+  </si>
+  <si>
+    <t>211014_010</t>
+  </si>
+  <si>
+    <t>211105_001</t>
+  </si>
+  <si>
+    <t>211105_002</t>
+  </si>
+  <si>
+    <t>211105_003</t>
+  </si>
+  <si>
+    <t>211105_004</t>
+  </si>
+  <si>
+    <t>211105_005</t>
+  </si>
+  <si>
+    <t>211105_006</t>
+  </si>
+  <si>
+    <t>211105_007</t>
+  </si>
+  <si>
+    <t>211105_008</t>
+  </si>
+  <si>
+    <t>211105_009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,6 +438,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -408,12 +472,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,16 +793,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5911F61E-9712-514B-8E64-67B2F8452371}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J80" sqref="J80"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3230,13 +3296,430 @@
         <v>12</v>
       </c>
       <c r="G96" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>-33.403019009584341</v>
+      </c>
+      <c r="B97">
+        <v>-28.390682987433959</v>
+      </c>
+      <c r="C97">
+        <v>-1</v>
+      </c>
+      <c r="D97">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" s="5">
+        <v>23</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>-35.663218001864379</v>
+      </c>
+      <c r="B98">
+        <v>-30.062769656673396</v>
+      </c>
+      <c r="C98">
+        <v>-1</v>
+      </c>
+      <c r="D98">
+        <v>-1</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" s="5">
+        <v>23</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>-34.758773229374469</v>
+      </c>
+      <c r="B99">
+        <v>-27.022726481926693</v>
+      </c>
+      <c r="C99">
+        <v>-1</v>
+      </c>
+      <c r="D99">
+        <v>-1</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" s="5">
+        <v>23</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>-23.520502860350376</v>
+      </c>
+      <c r="B100">
+        <v>-18.995014886184251</v>
+      </c>
+      <c r="C100">
+        <v>-1</v>
+      </c>
+      <c r="D100">
+        <v>-1</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" s="5">
+        <v>23</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>-38.166158900474933</v>
+      </c>
+      <c r="B101">
+        <v>-35.810948142667556</v>
+      </c>
+      <c r="C101">
+        <v>-1</v>
+      </c>
+      <c r="D101">
+        <v>-1</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" s="5">
+        <v>23</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>-43.77940844748975</v>
+      </c>
+      <c r="B102">
+        <v>-42.558776095686781</v>
+      </c>
+      <c r="C102">
+        <v>-1</v>
+      </c>
+      <c r="D102">
+        <v>-1</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G102" s="5">
+        <v>23</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>-40.565457054816036</v>
+      </c>
+      <c r="B103">
+        <v>-36.720240987508824</v>
+      </c>
+      <c r="C103">
+        <v>-1</v>
+      </c>
+      <c r="D103">
+        <v>-1</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="5">
+        <v>23</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>-26.647719439484842</v>
+      </c>
+      <c r="B104">
+        <v>-18.773374140069368</v>
+      </c>
+      <c r="C104">
+        <v>-1</v>
+      </c>
+      <c r="D104">
+        <v>-1</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G104" s="5">
+        <v>23</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>-27.177539336590534</v>
+      </c>
+      <c r="B105">
+        <v>-21.720950490749242</v>
+      </c>
+      <c r="C105">
+        <v>-1</v>
+      </c>
+      <c r="D105">
+        <v>-1</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" s="5">
+        <v>23</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>-24.714028928373562</v>
+      </c>
+      <c r="B106">
+        <v>-20.702107948759764</v>
+      </c>
+      <c r="C106">
+        <v>-1</v>
+      </c>
+      <c r="D106">
+        <v>-1</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" s="5">
+        <v>23</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>-21.794911837769671</v>
+      </c>
+      <c r="B107">
+        <v>-15.008172247681792</v>
+      </c>
+      <c r="C107">
+        <v>-1</v>
+      </c>
+      <c r="D107">
+        <v>-1</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G107" s="5">
+        <v>23</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>-20.048273995614956</v>
+      </c>
+      <c r="B108">
+        <v>-16.70657169897531</v>
+      </c>
+      <c r="C108">
+        <v>-1</v>
+      </c>
+      <c r="D108">
+        <v>-1</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G108" s="5">
+        <v>23</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>-35.363888752349453</v>
+      </c>
+      <c r="B109">
+        <v>-24.01738185433825</v>
+      </c>
+      <c r="C109">
+        <v>-1</v>
+      </c>
+      <c r="D109">
+        <v>-1</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G109" s="5">
+        <v>23</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>-29.431318670980716</v>
+      </c>
+      <c r="B110">
+        <v>-21.287664147896407</v>
+      </c>
+      <c r="C110">
+        <v>-1</v>
+      </c>
+      <c r="D110">
+        <v>-1</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G110" s="5">
+        <v>23</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>-17.775888963715381</v>
+      </c>
+      <c r="B111">
+        <v>-10.30252262034193</v>
+      </c>
+      <c r="C111">
+        <v>-1</v>
+      </c>
+      <c r="D111">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G111" s="5">
+        <v>23</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>-24.6912942040723</v>
+      </c>
+      <c r="B112">
+        <v>-15.368392939912667</v>
+      </c>
+      <c r="C112">
+        <v>-1</v>
+      </c>
+      <c r="D112">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G112" s="5">
+        <v>23</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Code/Plotting in R/Data/Adaptation_R_Import.xlsx
+++ b/Code/Plotting in R/Data/Adaptation_R_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Documents/RStudio/Bryant_et_al_2021/Code/Plotting in R/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495A6391-9CB2-4645-BE26-7EF0F75CE352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC6C144-220B-684D-9B21-2FDAAE305999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="2040" windowWidth="32740" windowHeight="16440" xr2:uid="{3004599B-148A-194A-83D2-70A6D74987AA}"/>
+    <workbookView xWindow="1440" yWindow="4020" windowWidth="32740" windowHeight="16440" xr2:uid="{3004599B-148A-194A-83D2-70A6D74987AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="95">
   <si>
     <t>Ss</t>
   </si>
@@ -39,18 +39,12 @@
     <t>Stimulus</t>
   </si>
   <si>
-    <t>Tc</t>
-  </si>
-  <si>
     <t>pFPT</t>
   </si>
   <si>
     <t>pFPTe</t>
   </si>
   <si>
-    <t>Ce</t>
-  </si>
-  <si>
     <t>AdaptWindowEarly</t>
   </si>
   <si>
@@ -114,48 +108,6 @@
     <t>191113_003</t>
   </si>
   <si>
-    <t>200627_006</t>
-  </si>
-  <si>
-    <t>200627_005</t>
-  </si>
-  <si>
-    <t>200627_004</t>
-  </si>
-  <si>
-    <t>200627_003</t>
-  </si>
-  <si>
-    <t>200627_002</t>
-  </si>
-  <si>
-    <t>200627_001</t>
-  </si>
-  <si>
-    <t>200626_008</t>
-  </si>
-  <si>
-    <t>200626_007</t>
-  </si>
-  <si>
-    <t>200626_006</t>
-  </si>
-  <si>
-    <t>200626_005</t>
-  </si>
-  <si>
-    <t>191104_005</t>
-  </si>
-  <si>
-    <t>191104_004</t>
-  </si>
-  <si>
-    <t>191104_003</t>
-  </si>
-  <si>
-    <t>191104_002</t>
-  </si>
-  <si>
     <t>210416_008</t>
   </si>
   <si>
@@ -255,54 +207,6 @@
     <t>210216_014</t>
   </si>
   <si>
-    <t>200805_002</t>
-  </si>
-  <si>
-    <t>200805_001</t>
-  </si>
-  <si>
-    <t>200805_003</t>
-  </si>
-  <si>
-    <t>200729_008</t>
-  </si>
-  <si>
-    <t>200729_007</t>
-  </si>
-  <si>
-    <t>200729_006</t>
-  </si>
-  <si>
-    <t>200729_005</t>
-  </si>
-  <si>
-    <t>200729_004</t>
-  </si>
-  <si>
-    <t>200729_003</t>
-  </si>
-  <si>
-    <t>200729_002</t>
-  </si>
-  <si>
-    <t>200729_001</t>
-  </si>
-  <si>
-    <t>200706_003</t>
-  </si>
-  <si>
-    <t>200706_001</t>
-  </si>
-  <si>
-    <t>200706_005</t>
-  </si>
-  <si>
-    <t>200706_004</t>
-  </si>
-  <si>
-    <t>200706_002</t>
-  </si>
-  <si>
     <t>210409_001</t>
   </si>
   <si>
@@ -403,13 +307,16 @@
   </si>
   <si>
     <t>211105_009</t>
+  </si>
+  <si>
+    <t>Tambient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,13 +334,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -472,13 +372,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,31 +692,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5911F61E-9712-514B-8E64-67B2F8452371}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -826,18 +726,18 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.9729451656529662</v>
+        <v>1.4871201115106227</v>
       </c>
       <c r="B2">
-        <v>8.8162318829181636</v>
+        <v>9.1346612853952518</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -855,15 +755,15 @@
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-16.789966912931128</v>
+        <v>-16.767250134868171</v>
       </c>
       <c r="B3">
-        <v>10.406619007058161</v>
+        <v>11.174559700225087</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -881,15 +781,15 @@
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-20.291210707649931</v>
+        <v>-20.128209138978576</v>
       </c>
       <c r="B4">
-        <v>2.6963299635317863</v>
+        <v>3.3812181981136886</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -907,15 +807,15 @@
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-21.052397200569786</v>
+        <v>-20.789239631360694</v>
       </c>
       <c r="B5">
-        <v>2.8817517402102846</v>
+        <v>3.4041995798102116</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -933,15 +833,15 @@
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-13.952327205082524</v>
+        <v>-13.097951466359845</v>
       </c>
       <c r="B6">
-        <v>4.7562996073190789</v>
+        <v>5.0614343132066404</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -959,15 +859,15 @@
         <v>15</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-17.755952046806666</v>
+        <v>-17.160435076977393</v>
       </c>
       <c r="B7">
-        <v>5.2129758794699583</v>
+        <v>4.9700001256384398</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -985,15 +885,15 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>29.700571874050503</v>
+        <v>29.198934919395512</v>
       </c>
       <c r="B8">
-        <v>12.340835717402218</v>
+        <v>12.395791675436389</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1011,15 +911,15 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-7.658151714671205</v>
+        <v>-7.6652062410309103</v>
       </c>
       <c r="B9">
-        <v>4.0772066309785044</v>
+        <v>4.3676204287713878</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1037,15 +937,15 @@
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-18.007564815941155</v>
+        <v>-17.365520250760813</v>
       </c>
       <c r="B10">
-        <v>-2.6173445440733825</v>
+        <v>-2.8106820473863934</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1063,15 +963,15 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-12.144721489522373</v>
+        <v>-11.745448559048198</v>
       </c>
       <c r="B11">
-        <v>6.0170582132799071</v>
+        <v>6.414505340755932</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1089,15 +989,15 @@
         <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>10.268388155062661</v>
+        <v>8.643364246399198</v>
       </c>
       <c r="B12">
-        <v>6.3917451962904686</v>
+        <v>6.2802540986513922</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1115,15 +1015,15 @@
         <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-23.185250752305745</v>
+        <v>-22.800720144234482</v>
       </c>
       <c r="B13">
-        <v>-0.39280630878508849</v>
+        <v>-0.20773490776299869</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1141,15 +1041,15 @@
         <v>15</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-28.243533153595713</v>
+        <v>-26.625918958422389</v>
       </c>
       <c r="B14">
-        <v>-3.2532898081403214</v>
+        <v>-2.2240309636392044</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1167,15 +1067,15 @@
         <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-22.064908566810569</v>
+        <v>-20.094194473489594</v>
       </c>
       <c r="B15">
-        <v>-3.0155235327236851</v>
+        <v>-3.3896777994995166</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1193,15 +1093,15 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-9.7455366709104965</v>
+        <v>-9.942906235428012</v>
       </c>
       <c r="B16">
-        <v>1.346457836479608</v>
+        <v>1.414096738345914</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -1219,15 +1119,15 @@
         <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-15.783902224656057</v>
+        <v>-12.086820515453647</v>
       </c>
       <c r="B17">
-        <v>2.1690599569415294</v>
+        <v>2.3239039522709364</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1245,15 +1145,15 @@
         <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-27.693978107477463</v>
+        <v>-25.396454541736379</v>
       </c>
       <c r="B18">
-        <v>-6.2253035437008801</v>
+        <v>-5.7152983995932169</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1271,15 +1171,15 @@
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-5.2732929987986212</v>
+        <v>-4.9638698331746509</v>
       </c>
       <c r="B19">
-        <v>10.855277548402505</v>
+        <v>11.691343581370802</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1291,18 +1191,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="1">
         <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3.7567402882006986</v>
+        <v>4.2063685993831692</v>
       </c>
       <c r="B20">
         <v>8.6221373031128721</v>
@@ -1317,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" s="1">
         <v>15</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>23.810554018890883</v>
+        <v>17.726427358626239</v>
       </c>
       <c r="B21">
-        <v>12.053032830473978</v>
+        <v>15.336654017628927</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1343,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G21" s="1">
         <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-6.1833537474790727</v>
+        <v>-6.1381733902761582</v>
       </c>
       <c r="B22">
-        <v>4.4930240671795403</v>
+        <v>2.9778411311712887</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1369,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1">
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1.6196721469060691</v>
+        <v>2.6200384262495406</v>
       </c>
       <c r="B23">
-        <v>10.989054394553524</v>
+        <v>11.034395324538146</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1395,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1">
         <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-8.0945437409159187</v>
+        <v>-7.5768332373631875</v>
       </c>
       <c r="B24">
-        <v>2.148104305720195</v>
+        <v>2.7295058808064079</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1421,21 +1321,21 @@
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="1">
         <v>15</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-12.15824461001349</v>
+        <v>-12.02488095923332</v>
       </c>
       <c r="B25">
-        <v>-6.8674084514467388</v>
+        <v>-6.0749119129143931</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -1447,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="1">
         <v>15</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-5.9399125474934849</v>
+        <v>-6.2672933295514897</v>
       </c>
       <c r="B26">
-        <v>5.4621702449367309</v>
+        <v>4.330843131569095</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1473,21 +1373,21 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26" s="1">
         <v>15</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>-7.4423906154792805</v>
+        <v>-7.5200317004024742</v>
       </c>
       <c r="B27">
-        <v>2.4697591531116414</v>
+        <v>3.2343208088117841</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1499,21 +1399,21 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27" s="1">
         <v>15</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-5.8041973724083693</v>
+        <v>-5.3309651895815788</v>
       </c>
       <c r="B28">
-        <v>6.8902211986799378</v>
+        <v>7.2319403259357449</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1525,21 +1425,21 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="1">
         <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-6.0236052269170006</v>
+        <v>-4.8235369881232106</v>
       </c>
       <c r="B29">
-        <v>7.6750299558221142</v>
+        <v>8.4744071784484376</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1551,21 +1451,21 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="1">
         <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-13.771622573690106</v>
+        <v>-13.353363724277651</v>
       </c>
       <c r="B30">
-        <v>-4.3528086540104516</v>
+        <v>-3.3844144581927509</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1577,24 +1477,24 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" s="1">
         <v>15</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>-0.16824260673651636</v>
+        <v>-0.43509032898248101</v>
       </c>
       <c r="B31">
-        <v>10.309128013408483</v>
+        <v>11.059451640685392</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1603,21 +1503,21 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="1">
         <v>15</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-10.516255604358934</v>
+        <v>-10.434200374848945</v>
       </c>
       <c r="B32">
-        <v>1.5786901442957304</v>
+        <v>2.0971918745869611</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1629,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G32" s="1">
         <v>15</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2.691158708259489</v>
+        <v>2.6137381680931613</v>
       </c>
       <c r="B33">
-        <v>12.151946262996933</v>
+        <v>12.7180224491464</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1655,21 +1555,21 @@
         <v>0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G33" s="1">
         <v>15</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-2.3323168838852606</v>
+        <v>-2.2740668914552487</v>
       </c>
       <c r="B34">
-        <v>6.5004789963793739</v>
+        <v>7.0629838848725681</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1681,47 +1581,47 @@
         <v>0</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" s="1">
         <v>15</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>14.353953037602198</v>
+        <v>14.337800972964644</v>
       </c>
       <c r="B35">
-        <v>7.9213378355153692</v>
+        <v>7.1430610639125094</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35" s="1">
         <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>12.676094039584447</v>
+        <v>12.95166123130273</v>
       </c>
       <c r="B36">
-        <v>12.392330033876751</v>
+        <v>12.582726969205337</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1733,21 +1633,21 @@
         <v>0</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="3">
         <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>23.858468747391669</v>
+        <v>24.484074095571781</v>
       </c>
       <c r="B37">
-        <v>24.640507546619563</v>
+        <v>22.101494258146356</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1759,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" s="3">
         <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>10.848775764202516</v>
+        <v>11.873242863254891</v>
       </c>
       <c r="B38">
-        <v>16.434736722478064</v>
+        <v>17.39949057212382</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1785,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38" s="3">
         <v>15</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>15.038484048986959</v>
+        <v>11.763841426388471</v>
       </c>
       <c r="B39">
-        <v>18.172290020435693</v>
+        <v>18.655118949590758</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1811,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G39" s="3">
         <v>15</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4.5064797957349629</v>
+        <v>5.8401133763168342</v>
       </c>
       <c r="B40">
-        <v>7.0223880677020549</v>
+        <v>6.8251949451447604</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1837,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40" s="3">
         <v>15</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>11.310552047533724</v>
+        <v>10.898791872017986</v>
       </c>
       <c r="B41">
-        <v>17.298043166836436</v>
+        <v>17.471737014422814</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1863,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G41" s="3">
         <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>12.829360915672217</v>
+        <v>12.895821657573684</v>
       </c>
       <c r="B42">
-        <v>18.380809498314747</v>
+        <v>18.714258901666938</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1889,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G42" s="3">
         <v>15</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>20.692841018866538</v>
+        <v>21.730695305752704</v>
       </c>
       <c r="B43">
-        <v>23.262016645436589</v>
+        <v>23.832325713874091</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1915,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3">
         <v>15</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>12.856024106538358</v>
+        <v>13.129234210171973</v>
       </c>
       <c r="B44">
-        <v>17.887902748530042</v>
+        <v>18.565832889193508</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1941,18 +1841,18 @@
         <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="3">
         <v>15</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>22.579263899660614</v>
+        <v>22.600381425861013</v>
       </c>
       <c r="B45">
         <v>21.745710360291184</v>
@@ -1967,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G45" s="3">
         <v>15</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>24.186609908411004</v>
+        <v>24.835197670560369</v>
       </c>
       <c r="B46">
-        <v>30.527703771307916</v>
+        <v>30.763889167248504</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1993,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3">
         <v>15</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>15.109516368746608</v>
+        <v>15.041371277343561</v>
       </c>
       <c r="B47">
-        <v>16.764009022809333</v>
+        <v>17.883743891977783</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2019,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47" s="3">
         <v>15</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>22.224477736148202</v>
+        <v>21.633607715140322</v>
       </c>
       <c r="B48">
-        <v>17.30947547447937</v>
+        <v>16.67466103884486</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2045,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G48" s="3">
         <v>15</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16.417879524321599</v>
+        <v>16.386367713515316</v>
       </c>
       <c r="B49">
-        <v>16.897904507466649</v>
+        <v>17.720325916298258</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2071,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G49" s="3">
         <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>21.94029387012008</v>
+        <v>22.704586588386086</v>
       </c>
       <c r="B50">
-        <v>23.007656090832704</v>
+        <v>23.138941959404121</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2097,18 +1997,18 @@
         <v>0</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G50" s="3">
         <v>15</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5.4907833870481717</v>
+        <v>5.5217119770092964</v>
       </c>
       <c r="B51">
         <v>9.1366836359408357</v>
@@ -2123,515 +2023,515 @@
         <v>0</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G51" s="3">
         <v>15</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>21.226356116841824</v>
+        <v>-24.843719940466798</v>
       </c>
       <c r="B52">
-        <v>21.17398180317241</v>
+        <v>-25.488381378798941</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3">
+        <v>23</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>10.879334202891719</v>
+        <v>-25.177205474734706</v>
       </c>
       <c r="B53">
-        <v>10.661991256207541</v>
+        <v>-26.099274576159239</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3">
+        <v>23</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>12.193432708077687</v>
+        <v>-37.437415839483549</v>
       </c>
       <c r="B54">
-        <v>13.59014865362799</v>
+        <v>-40.53415440178496</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="3">
+        <v>23</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>72.205999791858318</v>
+        <v>-10.854184802638246</v>
       </c>
       <c r="B55">
-        <v>70.930651048827457</v>
+        <v>-11.617950900760436</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="3">
+        <v>23</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>21.073433699632695</v>
+        <v>-10.762064891468135</v>
       </c>
       <c r="B56">
-        <v>24.475369207467253</v>
+        <v>-10.294110369215215</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G56" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" s="3">
+        <v>23</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>65.323693160754502</v>
+        <v>-18.121056618773437</v>
       </c>
       <c r="B57">
-        <v>76.818077179153889</v>
+        <v>-17.736529964113313</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="3">
+        <v>23</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>33.169395151454083</v>
+        <v>-31.817506315350553</v>
       </c>
       <c r="B58">
-        <v>25.477962922179245</v>
+        <v>-35.895148161916751</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="3">
+        <v>23</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>40.863258507271603</v>
+        <v>-12.002138584917143</v>
       </c>
       <c r="B59">
-        <v>39.723880719771039</v>
+        <v>-14.967032968199735</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="3">
+        <v>23</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>148.38570192609333</v>
+        <v>-8.4392822084105603</v>
       </c>
       <c r="B60">
-        <v>103.4889964345688</v>
+        <v>-8.859624365515991</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="3">
+        <v>23</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>9.1787717242638536</v>
+        <v>-23.90069787709723</v>
       </c>
       <c r="B61">
-        <v>8.4598793414968121</v>
+        <v>-25.353706108083607</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G61" s="1">
-        <v>15</v>
+        <v>-1</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="3">
+        <v>23</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>9.3552775388967735</v>
+        <v>-24.770671647441816</v>
       </c>
       <c r="B62">
-        <v>11.882920255503567</v>
+        <v>-26.716395606617162</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="3">
+        <v>23</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2.4855677420003546</v>
+        <v>-25.552336135450737</v>
       </c>
       <c r="B63">
-        <v>3.5920085760049933</v>
+        <v>-23.946068905697071</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="3">
+        <v>23</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>24.794947793716215</v>
+        <v>-19.076468332228963</v>
       </c>
       <c r="B64">
-        <v>16.055199520108484</v>
+        <v>-19.091214068369485</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="1">
-        <v>15</v>
+        <v>-1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3">
+        <v>23</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>10.202822279630032</v>
+        <v>-14.86587328981525</v>
       </c>
       <c r="B65">
-        <v>12.324709798037892</v>
+        <v>-14.774406943598372</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G65" s="1">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3">
+        <v>23</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>90.37763515103947</v>
+        <v>-24.636142829540944</v>
       </c>
       <c r="B66">
-        <v>40.046856392646013</v>
+        <v>-25.40071736476586</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="1">
-        <v>15</v>
+        <v>-1</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="3">
+        <v>23</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>124.99479306141011</v>
+        <v>-33.195561090407054</v>
       </c>
       <c r="B67">
-        <v>38.326496524284067</v>
+        <v>-27.880409090485326</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="1">
-        <v>15</v>
+        <v>-1</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" s="4">
+        <v>23</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>-13.956003175410544</v>
+        <v>-35.508615854874435</v>
       </c>
       <c r="B68">
-        <v>-15.18031603714752</v>
+        <v>-28.464260788439923</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G68" s="4">
         <v>23</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>-29.237254451314179</v>
+        <v>-34.03412582863605</v>
       </c>
       <c r="B69">
-        <v>-30.776699893558003</v>
+        <v>-26.297126538625488</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G69" s="4">
         <v>23</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>-18.069322662383549</v>
+        <v>-23.468277345187225</v>
       </c>
       <c r="B70">
-        <v>-19.511923282057182</v>
+        <v>-18.364960683738033</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G70" s="4">
         <v>23</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-4.3723900521630252</v>
+        <v>-38.174655734847775</v>
       </c>
       <c r="B71">
-        <v>-4.536071514880625</v>
+        <v>-35.652635055225318</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -2640,232 +2540,232 @@
         <v>-1</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G71" s="4">
         <v>23</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-18.619786914769431</v>
+        <v>-43.623957487518716</v>
       </c>
       <c r="B72">
-        <v>-20.132843776906782</v>
+        <v>-42.582286529440651</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G72" s="4">
         <v>23</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>-10.739228951058573</v>
+        <v>-40.617763508346108</v>
       </c>
       <c r="B73">
-        <v>-11.764403703218145</v>
+        <v>-35.76259513199571</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G73" s="4">
         <v>23</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>-17.361844258553855</v>
+        <v>-26.70204361280582</v>
       </c>
       <c r="B74">
-        <v>-18.390397810056207</v>
+        <v>-18.368918611717469</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G74" s="4">
         <v>23</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>-16.616995727439331</v>
+        <v>-26.772026500811457</v>
       </c>
       <c r="B75">
-        <v>-17.027743115268592</v>
+        <v>-21.308069547205339</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G75" s="4">
         <v>23</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>-21.425289789593545</v>
+        <v>-24.870622576452607</v>
       </c>
       <c r="B76">
-        <v>-21.674901235954248</v>
+        <v>-19.922192890494959</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G76" s="4">
         <v>23</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>-23.81571068337503</v>
+        <v>-21.353960825104817</v>
       </c>
       <c r="B77">
-        <v>-24.510406461655208</v>
+        <v>-14.994839684412458</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G77" s="4">
         <v>23</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>-11.008821205538579</v>
+        <v>-19.925819391552373</v>
       </c>
       <c r="B78">
-        <v>-11.930070148319409</v>
+        <v>-16.70657169897531</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G78" s="4">
         <v>23</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>-14.417014645145544</v>
+        <v>-35.26053294299949</v>
       </c>
       <c r="B79">
-        <v>-15.534417291518233</v>
+        <v>-22.232473397558813</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G79" s="4">
         <v>23</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>-10.470575700519049</v>
+        <v>-29.497514908850121</v>
       </c>
       <c r="B80">
-        <v>-11.329917282482983</v>
+        <v>-20.660365610498456</v>
       </c>
       <c r="C80">
         <v>-1</v>
@@ -2874,852 +2774,72 @@
         <v>-1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G80" s="4">
         <v>23</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-11.025750022665042</v>
+        <v>-18.31081234492251</v>
       </c>
       <c r="B81">
-        <v>-12.269298640652575</v>
+        <v>-8.8882230467969112</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G81" s="4">
         <v>23</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>-24.868046620810816</v>
+        <v>-24.666300410985649</v>
       </c>
       <c r="B82">
-        <v>-24.830522095186119</v>
+        <v>-15.190764094337602</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G82" s="4">
         <v>23</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>-25.077689346756848</v>
-      </c>
-      <c r="B83">
-        <v>-26.194167864320512</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="3">
-        <v>23</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>-37.5382484240953</v>
-      </c>
-      <c r="B84">
-        <v>-40.190369251991669</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="3">
-        <v>23</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>-10.735801867667588</v>
-      </c>
-      <c r="B85">
-        <v>-11.673648286312821</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="3">
-        <v>23</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>-10.56525805176344</v>
-      </c>
-      <c r="B86">
-        <v>-10.984262694814653</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="3">
-        <v>23</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>-18.107570811783546</v>
-      </c>
-      <c r="B87">
-        <v>-17.69610421276932</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="3">
-        <v>23</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>-30.714989502754559</v>
-      </c>
-      <c r="B88">
-        <v>-34.67200829815728</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="3">
-        <v>23</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>-12.805503495410397</v>
-      </c>
-      <c r="B89">
-        <v>-14.885303467375165</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="3">
-        <v>23</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>-8.5801576430769089</v>
-      </c>
-      <c r="B90">
-        <v>-8.8235939261300604</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="3">
-        <v>23</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>-23.838008522970696</v>
-      </c>
-      <c r="B91">
-        <v>-26.294537156561955</v>
-      </c>
-      <c r="C91">
-        <v>-1</v>
-      </c>
-      <c r="D91">
-        <v>-1</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="3">
-        <v>23</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>-26.910327209888358</v>
-      </c>
-      <c r="B92">
-        <v>-27.392644762496083</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="3">
-        <v>23</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>-25.676159079989713</v>
-      </c>
-      <c r="B93">
-        <v>-23.946068905697071</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="3">
-        <v>23</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>-18.853018228921531</v>
-      </c>
-      <c r="B94">
-        <v>-19.153654261516692</v>
-      </c>
-      <c r="C94">
-        <v>-1</v>
-      </c>
-      <c r="D94">
-        <v>-1</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3">
-        <v>23</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>-14.151556190110334</v>
-      </c>
-      <c r="B95">
-        <v>-14.963508958258977</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3">
-        <v>23</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>-23.751868255834211</v>
-      </c>
-      <c r="B96">
-        <v>-25.202886295460043</v>
-      </c>
-      <c r="C96">
-        <v>-1</v>
-      </c>
-      <c r="D96">
-        <v>-1</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="3">
-        <v>23</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>-33.403019009584341</v>
-      </c>
-      <c r="B97">
-        <v>-28.390682987433959</v>
-      </c>
-      <c r="C97">
-        <v>-1</v>
-      </c>
-      <c r="D97">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G97" s="5">
-        <v>23</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>-35.663218001864379</v>
-      </c>
-      <c r="B98">
-        <v>-30.062769656673396</v>
-      </c>
-      <c r="C98">
-        <v>-1</v>
-      </c>
-      <c r="D98">
-        <v>-1</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G98" s="5">
-        <v>23</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>-34.758773229374469</v>
-      </c>
-      <c r="B99">
-        <v>-27.022726481926693</v>
-      </c>
-      <c r="C99">
-        <v>-1</v>
-      </c>
-      <c r="D99">
-        <v>-1</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G99" s="5">
-        <v>23</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>-23.520502860350376</v>
-      </c>
-      <c r="B100">
-        <v>-18.995014886184251</v>
-      </c>
-      <c r="C100">
-        <v>-1</v>
-      </c>
-      <c r="D100">
-        <v>-1</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G100" s="5">
-        <v>23</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>-38.166158900474933</v>
-      </c>
-      <c r="B101">
-        <v>-35.810948142667556</v>
-      </c>
-      <c r="C101">
-        <v>-1</v>
-      </c>
-      <c r="D101">
-        <v>-1</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G101" s="5">
-        <v>23</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>-43.77940844748975</v>
-      </c>
-      <c r="B102">
-        <v>-42.558776095686781</v>
-      </c>
-      <c r="C102">
-        <v>-1</v>
-      </c>
-      <c r="D102">
-        <v>-1</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G102" s="5">
-        <v>23</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>-40.565457054816036</v>
-      </c>
-      <c r="B103">
-        <v>-36.720240987508824</v>
-      </c>
-      <c r="C103">
-        <v>-1</v>
-      </c>
-      <c r="D103">
-        <v>-1</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G103" s="5">
-        <v>23</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>-26.647719439484842</v>
-      </c>
-      <c r="B104">
-        <v>-18.773374140069368</v>
-      </c>
-      <c r="C104">
-        <v>-1</v>
-      </c>
-      <c r="D104">
-        <v>-1</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G104" s="5">
-        <v>23</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>-27.177539336590534</v>
-      </c>
-      <c r="B105">
-        <v>-21.720950490749242</v>
-      </c>
-      <c r="C105">
-        <v>-1</v>
-      </c>
-      <c r="D105">
-        <v>-1</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G105" s="5">
-        <v>23</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>-24.714028928373562</v>
-      </c>
-      <c r="B106">
-        <v>-20.702107948759764</v>
-      </c>
-      <c r="C106">
-        <v>-1</v>
-      </c>
-      <c r="D106">
-        <v>-1</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G106" s="5">
-        <v>23</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>-21.794911837769671</v>
-      </c>
-      <c r="B107">
-        <v>-15.008172247681792</v>
-      </c>
-      <c r="C107">
-        <v>-1</v>
-      </c>
-      <c r="D107">
-        <v>-1</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G107" s="5">
-        <v>23</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>-20.048273995614956</v>
-      </c>
-      <c r="B108">
-        <v>-16.70657169897531</v>
-      </c>
-      <c r="C108">
-        <v>-1</v>
-      </c>
-      <c r="D108">
-        <v>-1</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G108" s="5">
-        <v>23</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>-35.363888752349453</v>
-      </c>
-      <c r="B109">
-        <v>-24.01738185433825</v>
-      </c>
-      <c r="C109">
-        <v>-1</v>
-      </c>
-      <c r="D109">
-        <v>-1</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G109" s="5">
-        <v>23</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>-29.431318670980716</v>
-      </c>
-      <c r="B110">
-        <v>-21.287664147896407</v>
-      </c>
-      <c r="C110">
-        <v>-1</v>
-      </c>
-      <c r="D110">
-        <v>-1</v>
-      </c>
-      <c r="E110" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G110" s="5">
-        <v>23</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>-17.775888963715381</v>
-      </c>
-      <c r="B111">
-        <v>-10.30252262034193</v>
-      </c>
-      <c r="C111">
-        <v>-1</v>
-      </c>
-      <c r="D111">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G111" s="5">
-        <v>23</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>-24.6912942040723</v>
-      </c>
-      <c r="B112">
-        <v>-15.368392939912667</v>
-      </c>
-      <c r="C112">
-        <v>-1</v>
-      </c>
-      <c r="D112">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G112" s="5">
-        <v>23</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Code/Plotting in R/Data/Adaptation_R_Import.xlsx
+++ b/Code/Plotting in R/Data/Adaptation_R_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Documents/RStudio/Bryant_et_al_2021/Code/Plotting in R/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC6C144-220B-684D-9B21-2FDAAE305999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E582E62-96AE-F54A-8E49-71786E3FE397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="4020" windowWidth="32740" windowHeight="16440" xr2:uid="{3004599B-148A-194A-83D2-70A6D74987AA}"/>
   </bookViews>
@@ -695,8 +695,8 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,7 +737,7 @@
         <v>1.4871201115106227</v>
       </c>
       <c r="B2">
-        <v>9.1346612853952518</v>
+        <v>9.9457514024314158</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-16.767250134868171</v>
+        <v>-16.22779182725651</v>
       </c>
       <c r="B3">
-        <v>11.174559700225087</v>
+        <v>12.872114284246949</v>
       </c>
       <c r="C3">
         <v>-1</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-20.128209138978576</v>
+        <v>-18.762619497260452</v>
       </c>
       <c r="B4">
-        <v>3.3812181981136886</v>
+        <v>-5.1938099456774731E-2</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-20.789239631360694</v>
+        <v>-19.213902499303479</v>
       </c>
       <c r="B5">
-        <v>3.4041995798102116</v>
+        <v>1.6215566659970464</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-13.097951466359845</v>
+        <v>-11.477784012965978</v>
       </c>
       <c r="B6">
-        <v>5.0614343132066404</v>
+        <v>5.3253362240968904</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-17.160435076977393</v>
+        <v>-16.712062265707708</v>
       </c>
       <c r="B7">
-        <v>4.9700001256384398</v>
+        <v>6.7620619070295112</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>29.198934919395512</v>
+        <v>17.398772667603374</v>
       </c>
       <c r="B8">
-        <v>12.395791675436389</v>
+        <v>12.665775030016647</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -916,13 +916,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-7.6652062410309103</v>
+        <v>-8.1211474688400553</v>
       </c>
       <c r="B9">
-        <v>4.3676204287713878</v>
+        <v>1.721637871511049</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-17.365520250760813</v>
+        <v>-14.019244026089597</v>
       </c>
       <c r="B10">
-        <v>-2.8106820473863934</v>
+        <v>-2.2027669800954284</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -968,16 +968,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-11.745448559048198</v>
+        <v>-10.126233970702842</v>
       </c>
       <c r="B11">
-        <v>6.414505340755932</v>
+        <v>9.0914208275220822</v>
       </c>
       <c r="C11">
         <v>-1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
@@ -994,10 +994,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>8.643364246399198</v>
+        <v>7.1366443546039591</v>
       </c>
       <c r="B12">
-        <v>6.2802540986513922</v>
+        <v>4.7560909738728592</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-22.800720144234482</v>
+        <v>-21.529648906424708</v>
       </c>
       <c r="B13">
-        <v>-0.20773490776299869</v>
+        <v>2.7339900409015634E-2</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-26.625918958422389</v>
+        <v>-24.861478598620529</v>
       </c>
       <c r="B14">
-        <v>-2.2240309636392044</v>
+        <v>-0.27924864813734385</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-20.094194473489594</v>
+        <v>-13.731266704883502</v>
       </c>
       <c r="B15">
-        <v>-3.3896777994995166</v>
+        <v>-3.5918967031508751</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-9.942906235428012</v>
+        <v>-8.086671755685007</v>
       </c>
       <c r="B16">
-        <v>1.414096738345914</v>
+        <v>-0.92779311623438798</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-12.086820515453647</v>
+        <v>-7.688470137958757</v>
       </c>
       <c r="B17">
-        <v>2.3239039522709364</v>
+        <v>-1.8418377904994645</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-25.396454541736379</v>
+        <v>-24.327347629743567</v>
       </c>
       <c r="B18">
-        <v>-5.7152983995932169</v>
+        <v>-6.7529538521736017</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-4.9638698331746509</v>
+        <v>-3.8104606250983761</v>
       </c>
       <c r="B19">
-        <v>11.691343581370802</v>
+        <v>12.581720944013441</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1202,13 +1202,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4.2063685993831692</v>
+        <v>6.0840805446344719</v>
       </c>
       <c r="B20">
-        <v>8.6221373031128721</v>
+        <v>8.9854813352036764</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>17.726427358626239</v>
+        <v>13.252201117910749</v>
       </c>
       <c r="B21">
-        <v>15.336654017628927</v>
+        <v>17.344856514968459</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-6.1381733902761582</v>
+        <v>-3.372349111463377</v>
       </c>
       <c r="B22">
-        <v>2.9778411311712887</v>
+        <v>2.625542137375044</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2.6200384262495406</v>
+        <v>4.8480038015272848</v>
       </c>
       <c r="B23">
-        <v>11.034395324538146</v>
+        <v>10.597007347183315</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-7.5768332373631875</v>
+        <v>-6.4292273870743779</v>
       </c>
       <c r="B24">
-        <v>2.7295058808064079</v>
+        <v>3.2047844443032618</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-12.02488095923332</v>
+        <v>-11.711013854029947</v>
       </c>
       <c r="B25">
-        <v>-6.0749119129143931</v>
+        <v>-5.4303223761000243</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-6.2672933295514897</v>
+        <v>-5.3934835600455315</v>
       </c>
       <c r="B26">
-        <v>4.330843131569095</v>
+        <v>5.0086905956888206</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>-7.5200317004024742</v>
+        <v>-7.1560825487814883</v>
       </c>
       <c r="B27">
-        <v>3.2343208088117841</v>
+        <v>3.4796470349906397</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-5.3309651895815788</v>
+        <v>-4.4291851525713142</v>
       </c>
       <c r="B28">
-        <v>7.2319403259357449</v>
+        <v>7.2829315716837817</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1436,10 +1436,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-4.8235369881232106</v>
+        <v>-2.4475031420629643</v>
       </c>
       <c r="B29">
-        <v>8.4744071784484376</v>
+        <v>8.0613314205745734</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-13.353363724277651</v>
+        <v>-10.873827969576475</v>
       </c>
       <c r="B30">
         <v>-3.3844144581927509</v>
@@ -1488,13 +1488,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>-0.43509032898248101</v>
+        <v>0.15864049147768533</v>
       </c>
       <c r="B31">
-        <v>11.059451640685392</v>
+        <v>11.764910001832355</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-10.434200374848945</v>
+        <v>-9.2299935727186195</v>
       </c>
       <c r="B32">
-        <v>2.0971918745869611</v>
+        <v>3.3264225571310422</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2.6137381680931613</v>
+        <v>2.6501186201025959</v>
       </c>
       <c r="B33">
-        <v>12.7180224491464</v>
+        <v>12.794730333956959</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-2.2740668914552487</v>
+        <v>-0.97112141811364827</v>
       </c>
       <c r="B34">
-        <v>7.0629838848725681</v>
+        <v>7.2734026462298997</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>14.337800972964644</v>
+        <v>12.131513351561036</v>
       </c>
       <c r="B35">
-        <v>7.1430610639125094</v>
+        <v>6.560894496417772</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1621,7 +1621,7 @@
         <v>12.95166123130273</v>
       </c>
       <c r="B36">
-        <v>12.582726969205337</v>
+        <v>12.776229815279043</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>24.484074095571781</v>
+        <v>24.109819821928571</v>
       </c>
       <c r="B37">
-        <v>22.101494258146356</v>
+        <v>21.04196456646984</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>11.873242863254891</v>
+        <v>12.892348505638003</v>
       </c>
       <c r="B38">
-        <v>17.39949057212382</v>
+        <v>18.058104480505275</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>11.763841426388471</v>
+        <v>15.212012006084837</v>
       </c>
       <c r="B39">
-        <v>18.655118949590758</v>
+        <v>19.642951521202328</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5.8401133763168342</v>
+        <v>6.3153491417835195</v>
       </c>
       <c r="B40">
-        <v>6.8251949451447604</v>
+        <v>7.4714656539394202</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>10.898791872017986</v>
+        <v>12.692016854258048</v>
       </c>
       <c r="B41">
-        <v>17.471737014422814</v>
+        <v>15.006505167144956</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>12.895821657573684</v>
+        <v>14.044924372030614</v>
       </c>
       <c r="B42">
-        <v>18.714258901666938</v>
+        <v>19.075535212858135</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>21.730695305752704</v>
+        <v>20.656866475143282</v>
       </c>
       <c r="B43">
-        <v>23.832325713874091</v>
+        <v>24.896528581236694</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>13.129234210171973</v>
+        <v>13.222956540584669</v>
       </c>
       <c r="B44">
-        <v>18.565832889193508</v>
+        <v>19.239993606155767</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1855,7 +1855,7 @@
         <v>22.600381425861013</v>
       </c>
       <c r="B45">
-        <v>21.745710360291184</v>
+        <v>22.365475125576808</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>24.835197670560369</v>
+        <v>25.722624399712306</v>
       </c>
       <c r="B46">
-        <v>30.763889167248504</v>
+        <v>31.655256810818724</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>15.041371277343561</v>
+        <v>15.62119021778031</v>
       </c>
       <c r="B47">
-        <v>17.883743891977783</v>
+        <v>17.562304141326678</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>21.633607715140322</v>
+        <v>20.290157242676521</v>
       </c>
       <c r="B48">
-        <v>16.67466103884486</v>
+        <v>17.353504072624254</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16.386367713515316</v>
+        <v>16.077147891735581</v>
       </c>
       <c r="B49">
         <v>17.720325916298258</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>22.704586588386086</v>
+        <v>22.799589176657165</v>
       </c>
       <c r="B50">
-        <v>23.138941959404121</v>
+        <v>22.599613662957012</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5.5217119770092964</v>
+        <v>6.4082551977968301</v>
       </c>
       <c r="B51">
-        <v>9.1366836359408357</v>
+        <v>9.3294471828599423</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>-24.843719940466798</v>
+        <v>-24.873135113216243</v>
       </c>
       <c r="B52">
-        <v>-25.488381378798941</v>
+        <v>-25.755349079564191</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>-25.177205474734706</v>
+        <v>-24.875083265084267</v>
       </c>
       <c r="B53">
-        <v>-26.099274576159239</v>
+        <v>-24.409758526275617</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-37.437415839483549</v>
+        <v>-37.544353187634499</v>
       </c>
       <c r="B54">
-        <v>-40.53415440178496</v>
+        <v>-40.684975259707841</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>-10.854184802638246</v>
+        <v>-10.778018334986911</v>
       </c>
       <c r="B55">
-        <v>-11.617950900760436</v>
+        <v>-11.454154094149816</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>-10.762064891468135</v>
+        <v>-11.136454681680419</v>
       </c>
       <c r="B56">
-        <v>-10.294110369215215</v>
+        <v>-10.262091694722585</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>-18.121056618773437</v>
+        <v>-17.765383152890397</v>
       </c>
       <c r="B57">
-        <v>-17.736529964113313</v>
+        <v>-17.720475352420188</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-31.817506315350553</v>
+        <v>-30.792502924531966</v>
       </c>
       <c r="B58">
-        <v>-35.895148161916751</v>
+        <v>-36.145824948859996</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>-12.002138584917143</v>
+        <v>-12.511234904713865</v>
       </c>
       <c r="B59">
-        <v>-14.967032968199735</v>
+        <v>-14.946722086268622</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>-8.4392822084105603</v>
+        <v>-8.9853182332310997</v>
       </c>
       <c r="B60">
-        <v>-8.859624365515991</v>
+        <v>-8.8869956869158813</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2268,13 +2268,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>-23.90069787709723</v>
+        <v>-21.398317412547868</v>
       </c>
       <c r="B61">
-        <v>-25.353706108083607</v>
+        <v>-25.118466490239317</v>
       </c>
       <c r="C61">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>-1</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>-24.770671647441816</v>
+        <v>-24.873746951706174</v>
       </c>
       <c r="B62">
         <v>-26.716395606617162</v>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>-25.552336135450737</v>
+        <v>-24.902638210545732</v>
       </c>
       <c r="B63">
-        <v>-23.946068905697071</v>
+        <v>-26.397074514756589</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>-19.076468332228963</v>
+        <v>-18.86208241199752</v>
       </c>
       <c r="B64">
-        <v>-19.091214068369485</v>
+        <v>-18.881073905738333</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>-14.86587328981525</v>
+        <v>-13.509683055749477</v>
       </c>
       <c r="B65">
-        <v>-14.774406943598372</v>
+        <v>-13.939138596374963</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>-24.636142829540944</v>
+        <v>-23.706394564714799</v>
       </c>
       <c r="B66">
-        <v>-25.40071736476586</v>
+        <v>-25.736659939356962</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>-33.195561090407054</v>
+        <v>-33.118021758364293</v>
       </c>
       <c r="B67">
-        <v>-27.880409090485326</v>
+        <v>-27.973104672777847</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>-35.508615854874435</v>
+        <v>-34.99258303305264</v>
       </c>
       <c r="B68">
-        <v>-28.464260788439923</v>
+        <v>-27.42414430317514</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>-34.03412582863605</v>
+        <v>-33.963113678167957</v>
       </c>
       <c r="B69">
-        <v>-26.297126538625488</v>
+        <v>-25.050919946027729</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>-23.468277345187225</v>
+        <v>-22.904701527763415</v>
       </c>
       <c r="B70">
-        <v>-18.364960683738033</v>
+        <v>-17.921402496864111</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-38.174655734847775</v>
+        <v>-37.848725049947952</v>
       </c>
       <c r="B71">
-        <v>-35.652635055225318</v>
+        <v>-35.613090562840448</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-43.623957487518716</v>
+        <v>-43.154281196093386</v>
       </c>
       <c r="B72">
-        <v>-42.582286529440651</v>
+        <v>-42.711110919854995</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>-40.617763508346108</v>
+        <v>-40.424150088831986</v>
       </c>
       <c r="B73">
-        <v>-35.76259513199571</v>
+        <v>-35.495343115765799</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>-26.70204361280582</v>
+        <v>-26.50770118653357</v>
       </c>
       <c r="B74">
-        <v>-18.368918611717469</v>
+        <v>-17.706431315247762</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>-26.772026500811457</v>
+        <v>-25.678959939580214</v>
       </c>
       <c r="B75">
-        <v>-21.308069547205339</v>
+        <v>-22.332681922100271</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>-24.870622576452607</v>
+        <v>-24.701195170738917</v>
       </c>
       <c r="B76">
-        <v>-19.922192890494959</v>
+        <v>-17.750409923852693</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -2684,10 +2684,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>-21.353960825104817</v>
+        <v>-20.919435762154773</v>
       </c>
       <c r="B77">
-        <v>-14.994839684412458</v>
+        <v>-14.709197735329703</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>-19.925819391552373</v>
+        <v>-19.599885212518146</v>
       </c>
       <c r="B78">
-        <v>-16.70657169897531</v>
+        <v>-16.485362718893704</v>
       </c>
       <c r="C78">
         <v>-1</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>-35.26053294299949</v>
+        <v>-34.086871540602985</v>
       </c>
       <c r="B79">
-        <v>-22.232473397558813</v>
+        <v>-23.866553450233123</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>-29.497514908850121</v>
+        <v>-29.038292927411526</v>
       </c>
       <c r="B80">
-        <v>-20.660365610498456</v>
+        <v>-18.864035407723804</v>
       </c>
       <c r="C80">
         <v>-1</v>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-18.31081234492251</v>
+        <v>-18.060895945245818</v>
       </c>
       <c r="B81">
-        <v>-8.8882230467969112</v>
+        <v>-5.0938708355221838</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>-24.666300410985649</v>
+        <v>-24.504368395250665</v>
       </c>
       <c r="B82">
-        <v>-15.190764094337602</v>
+        <v>-15.09641347107663</v>
       </c>
       <c r="C82">
         <v>-1</v>

--- a/Code/Plotting in R/Data/Adaptation_R_Import.xlsx
+++ b/Code/Plotting in R/Data/Adaptation_R_Import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astrasb/Documents/RStudio/Bryant_et_al_2021/Code/Plotting in R/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E582E62-96AE-F54A-8E49-71786E3FE397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7B93C5-9C39-F54B-9BAD-F5A3407A5151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="4020" windowWidth="32740" windowHeight="16440" xr2:uid="{3004599B-148A-194A-83D2-70A6D74987AA}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A67" sqref="A67:D82"/>
     </sheetView>
   </sheetViews>
@@ -734,10 +734,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.4871201115106227</v>
+        <v>1.9729451656529662</v>
       </c>
       <c r="B2">
-        <v>9.9457514024314158</v>
+        <v>8.5177584030574707</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -760,16 +760,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-16.22779182725651</v>
+        <v>-16.789966912931128</v>
       </c>
       <c r="B3">
-        <v>12.872114284246949</v>
+        <v>3.9145207718665844</v>
       </c>
       <c r="C3">
         <v>-1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>0</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-18.762619497260452</v>
+        <v>-20.291210707649931</v>
       </c>
       <c r="B4">
-        <v>-5.1938099456774731E-2</v>
+        <v>0.43073076929776039</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>-19.213902499303479</v>
+        <v>-21.052397200569786</v>
       </c>
       <c r="B5">
-        <v>1.6215566659970464</v>
+        <v>0.89006500612791806</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -838,10 +838,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-11.477784012965978</v>
+        <v>-13.952327205082524</v>
       </c>
       <c r="B6">
-        <v>5.3253362240968904</v>
+        <v>4.5733114867542515</v>
       </c>
       <c r="C6">
         <v>-1</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-16.712062265707708</v>
+        <v>-17.755952046806666</v>
       </c>
       <c r="B7">
-        <v>6.7620619070295112</v>
+        <v>5.854412988749373</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>17.398772667603374</v>
+        <v>29.700571874050503</v>
       </c>
       <c r="B8">
-        <v>12.665775030016647</v>
+        <v>31.903205279881675</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -916,13 +916,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-8.1211474688400553</v>
+        <v>-7.658151714671205</v>
       </c>
       <c r="B9">
-        <v>1.721637871511049</v>
+        <v>5.6849486072037534</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-14.019244026089597</v>
+        <v>-18.007564815941155</v>
       </c>
       <c r="B10">
-        <v>-2.2027669800954284</v>
+        <v>-2.6389022630358969</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -968,16 +968,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>-10.126233970702842</v>
+        <v>-12.144721489522373</v>
       </c>
       <c r="B11">
-        <v>9.0914208275220822</v>
+        <v>3.8410802783918148</v>
       </c>
       <c r="C11">
         <v>-1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
@@ -994,10 +994,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>7.1366443546039591</v>
+        <v>10.268388155062661</v>
       </c>
       <c r="B12">
-        <v>4.7560909738728592</v>
+        <v>8.202894707923706</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>-21.529648906424708</v>
+        <v>-23.185250752305745</v>
       </c>
       <c r="B13">
-        <v>2.7339900409015634E-2</v>
+        <v>0.49076539220482596</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-24.861478598620529</v>
+        <v>-28.243533153595713</v>
       </c>
       <c r="B14">
-        <v>-0.27924864813734385</v>
+        <v>-8.6737025612716465</v>
       </c>
       <c r="C14">
         <v>-1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>0</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>-13.731266704883502</v>
+        <v>-22.064908566810569</v>
       </c>
       <c r="B15">
-        <v>-3.5918967031508751</v>
+        <v>-3.3963290325872761</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-8.086671755685007</v>
+        <v>-9.7455366709104965</v>
       </c>
       <c r="B16">
-        <v>-0.92779311623438798</v>
+        <v>4.2600125884506284</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>-7.688470137958757</v>
+        <v>-15.783902224656057</v>
       </c>
       <c r="B17">
-        <v>-1.8418377904994645</v>
+        <v>4.5001490401699273</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>-24.327347629743567</v>
+        <v>-27.693978107477463</v>
       </c>
       <c r="B18">
-        <v>-6.7529538521736017</v>
+        <v>-5.7112480084562502</v>
       </c>
       <c r="C18">
         <v>-1</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>-3.8104606250983761</v>
+        <v>-5.2732929987986212</v>
       </c>
       <c r="B19">
-        <v>12.581720944013441</v>
+        <v>10.072968281774061</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1202,13 +1202,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>6.0840805446344719</v>
+        <v>3.7567402882006986</v>
       </c>
       <c r="B20">
-        <v>8.9854813352036764</v>
+        <v>8.4988074599962005</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>13.252201117910749</v>
+        <v>23.810554018890883</v>
       </c>
       <c r="B21">
-        <v>17.344856514968459</v>
+        <v>14.384981266978336</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1254,10 +1254,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>-3.372349111463377</v>
+        <v>-6.1833537474790727</v>
       </c>
       <c r="B22">
-        <v>2.625542137375044</v>
+        <v>-0.19621156067764645</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1280,10 +1280,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4.8480038015272848</v>
+        <v>1.6196721469060691</v>
       </c>
       <c r="B23">
-        <v>10.597007347183315</v>
+        <v>8.613978690536868</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>-6.4292273870743779</v>
+        <v>-8.0945437409159187</v>
       </c>
       <c r="B24">
-        <v>3.2047844443032618</v>
+        <v>2.7805075113218463</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>-11.711013854029947</v>
+        <v>-12.15824461001349</v>
       </c>
       <c r="B25">
-        <v>-5.4303223761000243</v>
+        <v>-6.4088639976693358</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>-5.3934835600455315</v>
+        <v>-5.9399125474934849</v>
       </c>
       <c r="B26">
-        <v>5.0086905956888206</v>
+        <v>1.7434047937450519</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>-7.1560825487814883</v>
+        <v>-7.4423906154792805</v>
       </c>
       <c r="B27">
-        <v>3.4796470349906397</v>
+        <v>3.1332051370420313</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1410,10 +1410,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>-4.4291851525713142</v>
+        <v>-5.8041973724083693</v>
       </c>
       <c r="B28">
-        <v>7.2829315716837817</v>
+        <v>8.0498256641969839</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1436,16 +1436,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>-2.4475031420629643</v>
+        <v>-6.0236052269170006</v>
       </c>
       <c r="B29">
-        <v>8.0613314205745734</v>
+        <v>12.463441096652106</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>-10.873827969576475</v>
+        <v>-13.771622573690106</v>
       </c>
       <c r="B30">
-        <v>-3.3844144581927509</v>
+        <v>-4.410464814819866</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.15864049147768533</v>
+        <v>-0.16824260673651636</v>
       </c>
       <c r="B31">
-        <v>11.764910001832355</v>
+        <v>9.7741927988297519</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>-9.2299935727186195</v>
+        <v>-10.516255604358934</v>
       </c>
       <c r="B32">
-        <v>3.3264225571310422</v>
+        <v>1.3928076420969107</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>2.6501186201025959</v>
+        <v>2.691158708259489</v>
       </c>
       <c r="B33">
-        <v>12.794730333956959</v>
+        <v>12.35085113323241</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1566,10 +1566,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>-0.97112141811364827</v>
+        <v>-2.3323168838852606</v>
       </c>
       <c r="B34">
-        <v>7.2734026462298997</v>
+        <v>5.4051163676750962</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1592,16 +1592,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>12.131513351561036</v>
+        <v>14.353953037602198</v>
       </c>
       <c r="B35">
-        <v>6.560894496417772</v>
+        <v>8.2530417540535161</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>0</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>12.95166123130273</v>
+        <v>12.676094039584447</v>
       </c>
       <c r="B36">
-        <v>12.776229815279043</v>
+        <v>11.866258972985595</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>24.109819821928571</v>
+        <v>23.858468747391669</v>
       </c>
       <c r="B37">
-        <v>21.04196456646984</v>
+        <v>27.290295238271131</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>12.892348505638003</v>
+        <v>10.848775764202516</v>
       </c>
       <c r="B38">
-        <v>18.058104480505275</v>
+        <v>15.761116691472536</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1696,10 +1696,10 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>15.212012006084837</v>
+        <v>15.038484048986959</v>
       </c>
       <c r="B39">
-        <v>19.642951521202328</v>
+        <v>18.655118949590758</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>6.3153491417835195</v>
+        <v>4.5064797957349629</v>
       </c>
       <c r="B40">
-        <v>7.4714656539394202</v>
+        <v>6.100086996799206</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>12.692016854258048</v>
+        <v>11.310552047533724</v>
       </c>
       <c r="B41">
-        <v>15.006505167144956</v>
+        <v>16.81453420393666</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>14.044924372030614</v>
+        <v>12.829360915672217</v>
       </c>
       <c r="B42">
-        <v>19.075535212858135</v>
+        <v>17.394373708294992</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>20.656866475143282</v>
+        <v>20.692841018866538</v>
       </c>
       <c r="B43">
-        <v>24.896528581236694</v>
+        <v>23.347791812978357</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>13.222956540584669</v>
+        <v>12.856024106538358</v>
       </c>
       <c r="B44">
-        <v>19.239993606155767</v>
+        <v>16.862894926838635</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>22.600381425861013</v>
+        <v>22.579263899660614</v>
       </c>
       <c r="B45">
-        <v>22.365475125576808</v>
+        <v>22.639324744405297</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>25.722624399712306</v>
+        <v>24.186609908411004</v>
       </c>
       <c r="B46">
-        <v>31.655256810818724</v>
+        <v>28.770451037050794</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>15.62119021778031</v>
+        <v>15.109516368746608</v>
       </c>
       <c r="B47">
-        <v>17.562304141326678</v>
+        <v>18.190705233990283</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>20.290157242676521</v>
+        <v>22.224477736148202</v>
       </c>
       <c r="B48">
-        <v>17.353504072624254</v>
+        <v>16.97922294076767</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1956,10 +1956,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16.077147891735581</v>
+        <v>16.417879524321599</v>
       </c>
       <c r="B49">
-        <v>17.720325916298258</v>
+        <v>19.138930427579851</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1982,10 +1982,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>22.799589176657165</v>
+        <v>21.94029387012008</v>
       </c>
       <c r="B50">
-        <v>22.599613662957012</v>
+        <v>22.863432167043953</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>6.4082551977968301</v>
+        <v>5.4907833870481717</v>
       </c>
       <c r="B51">
-        <v>9.3294471828599423</v>
+        <v>8.5439303863614295</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2034,10 +2034,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>-24.873135113216243</v>
+        <v>-24.134784447274185</v>
       </c>
       <c r="B52">
-        <v>-25.755349079564191</v>
+        <v>-25.279913680122995</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>-24.875083265084267</v>
+        <v>-24.120392677223833</v>
       </c>
       <c r="B53">
-        <v>-24.409758526275617</v>
+        <v>-27.258857438859145</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2086,10 +2086,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>-37.544353187634499</v>
+        <v>-37.669374333191698</v>
       </c>
       <c r="B54">
-        <v>-40.684975259707841</v>
+        <v>-39.691838810342375</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2112,10 +2112,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>-10.778018334986911</v>
+        <v>-10.312122912508782</v>
       </c>
       <c r="B55">
-        <v>-11.454154094149816</v>
+        <v>-10.961672166838726</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>-11.136454681680419</v>
+        <v>-11.474190510628475</v>
       </c>
       <c r="B56">
-        <v>-10.262091694722585</v>
+        <v>-11.440228513670611</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>-17.765383152890397</v>
+        <v>-17.151924359931822</v>
       </c>
       <c r="B57">
-        <v>-17.720475352420188</v>
+        <v>-17.736155506138033</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>-30.792502924531966</v>
+        <v>-30.095444987662798</v>
       </c>
       <c r="B58">
-        <v>-36.145824948859996</v>
+        <v>-34.002305490597017</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2216,10 +2216,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>-12.511234904713865</v>
+        <v>-11.539863648375105</v>
       </c>
       <c r="B59">
-        <v>-14.946722086268622</v>
+        <v>-14.885303467375165</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2242,10 +2242,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>-8.9853182332310997</v>
+        <v>-9.1201725337197495</v>
       </c>
       <c r="B60">
-        <v>-8.8869956869158813</v>
+        <v>-9.5410167111468951</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>-21.398317412547868</v>
+        <v>-20.110482420944503</v>
       </c>
       <c r="B61">
-        <v>-25.118466490239317</v>
+        <v>-26.721146403295542</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2294,10 +2294,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>-24.873746951706174</v>
+        <v>-21.540011370681356</v>
       </c>
       <c r="B62">
-        <v>-26.716395606617162</v>
+        <v>-23.399095109859431</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2320,10 +2320,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>-24.902638210545732</v>
+        <v>-23.140648669107058</v>
       </c>
       <c r="B63">
-        <v>-26.397074514756589</v>
+        <v>-23.946068905697071</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>-18.86208241199752</v>
+        <v>-18.408399319121951</v>
       </c>
       <c r="B64">
-        <v>-18.881073905738333</v>
+        <v>-19.598115865394359</v>
       </c>
       <c r="C64">
         <v>-1</v>
@@ -2372,10 +2372,10 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>-13.509683055749477</v>
+        <v>-12.783651312822995</v>
       </c>
       <c r="B65">
-        <v>-13.939138596374963</v>
+        <v>-15.563914035986365</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>-23.706394564714799</v>
+        <v>-22.982392598476842</v>
       </c>
       <c r="B66">
-        <v>-25.736659939356962</v>
+        <v>-25.159801821551184</v>
       </c>
       <c r="C66">
         <v>-1</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>-33.118021758364293</v>
+        <v>-33.403019009584341</v>
       </c>
       <c r="B67">
-        <v>-27.973104672777847</v>
+        <v>-27.764424561454693</v>
       </c>
       <c r="C67">
         <v>-1</v>
@@ -2450,10 +2450,10 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>-34.99258303305264</v>
+        <v>-35.663218001864379</v>
       </c>
       <c r="B68">
-        <v>-27.42414430317514</v>
+        <v>-30.141496648385562</v>
       </c>
       <c r="C68">
         <v>-1</v>
@@ -2476,10 +2476,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>-33.963113678167957</v>
+        <v>-34.758773229374469</v>
       </c>
       <c r="B69">
-        <v>-25.050919946027729</v>
+        <v>-27.937435638279297</v>
       </c>
       <c r="C69">
         <v>-1</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>-22.904701527763415</v>
+        <v>-23.520502860350376</v>
       </c>
       <c r="B70">
-        <v>-17.921402496864111</v>
+        <v>-19.232504192481692</v>
       </c>
       <c r="C70">
         <v>-1</v>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>-37.848725049947952</v>
+        <v>-38.166158900474933</v>
       </c>
       <c r="B71">
-        <v>-35.613090562840448</v>
+        <v>-35.700583705009215</v>
       </c>
       <c r="C71">
         <v>-1</v>
@@ -2554,10 +2554,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>-43.154281196093386</v>
+        <v>-43.77940844748975</v>
       </c>
       <c r="B72">
-        <v>-42.711110919854995</v>
+        <v>-42.351546259795079</v>
       </c>
       <c r="C72">
         <v>-1</v>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>-40.424150088831986</v>
+        <v>-40.565457054816036</v>
       </c>
       <c r="B73">
-        <v>-35.495343115765799</v>
+        <v>-36.570710749141348</v>
       </c>
       <c r="C73">
         <v>-1</v>
@@ -2606,10 +2606,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>-26.50770118653357</v>
+        <v>-26.647719439484842</v>
       </c>
       <c r="B74">
-        <v>-17.706431315247762</v>
+        <v>-18.77837306935989</v>
       </c>
       <c r="C74">
         <v>-1</v>
@@ -2632,10 +2632,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>-25.678959939580214</v>
+        <v>-27.177539336590534</v>
       </c>
       <c r="B75">
-        <v>-22.332681922100271</v>
+        <v>-21.404449611249206</v>
       </c>
       <c r="C75">
         <v>-1</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>-24.701195170738917</v>
+        <v>-24.714028928373562</v>
       </c>
       <c r="B76">
-        <v>-17.750409923852693</v>
+        <v>-21.454897422790498</v>
       </c>
       <c r="C76">
         <v>-1</v>
@@ -2684,10 +2684,10 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>-20.919435762154773</v>
+        <v>-21.794911837769671</v>
       </c>
       <c r="B77">
-        <v>-14.709197735329703</v>
+        <v>-14.802278227052838</v>
       </c>
       <c r="C77">
         <v>-1</v>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>-19.599885212518146</v>
+        <v>-20.048273995614956</v>
       </c>
       <c r="B78">
-        <v>-16.485362718893704</v>
+        <v>-17.161223883922283</v>
       </c>
       <c r="C78">
         <v>-1</v>
@@ -2736,10 +2736,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>-34.086871540602985</v>
+        <v>-35.363888752349453</v>
       </c>
       <c r="B79">
-        <v>-23.866553450233123</v>
+        <v>-20.77696002542638</v>
       </c>
       <c r="C79">
         <v>-1</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>-29.038292927411526</v>
+        <v>-29.431318670980716</v>
       </c>
       <c r="B80">
-        <v>-18.864035407723804</v>
+        <v>-21.302403492687031</v>
       </c>
       <c r="C80">
         <v>-1</v>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>-18.060895945245818</v>
+        <v>-17.775888963715381</v>
       </c>
       <c r="B81">
-        <v>-5.0938708355221838</v>
+        <v>-10.813393253887588</v>
       </c>
       <c r="C81">
         <v>-1</v>
@@ -2814,10 +2814,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>-24.504368395250665</v>
+        <v>-24.6912942040723</v>
       </c>
       <c r="B82">
-        <v>-15.09641347107663</v>
+        <v>-14.895092262578892</v>
       </c>
       <c r="C82">
         <v>-1</v>
